--- a/natmiOut/OldD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Igf2r</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H2">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I2">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J2">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5890183439877</v>
+        <v>18.86633166666667</v>
       </c>
       <c r="N2">
-        <v>18.5890183439877</v>
+        <v>56.598995</v>
       </c>
       <c r="O2">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846522</v>
       </c>
       <c r="P2">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846523</v>
       </c>
       <c r="Q2">
-        <v>155.7707448109859</v>
+        <v>161.1875106296789</v>
       </c>
       <c r="R2">
-        <v>155.7707448109859</v>
+        <v>1450.68759566711</v>
       </c>
       <c r="S2">
-        <v>0.003749070470221052</v>
+        <v>0.003605156542418446</v>
       </c>
       <c r="T2">
-        <v>0.003749070470221052</v>
+        <v>0.003605156542418447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H3">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I3">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J3">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.43488088349871</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N3">
-        <v>81.43488088349871</v>
+        <v>244.488083</v>
       </c>
       <c r="O3">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="P3">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="Q3">
-        <v>682.4013949568949</v>
+        <v>696.2742974039081</v>
       </c>
       <c r="R3">
-        <v>682.4013949568949</v>
+        <v>6266.468676635173</v>
       </c>
       <c r="S3">
-        <v>0.01642394996425615</v>
+        <v>0.01557302937924594</v>
       </c>
       <c r="T3">
-        <v>0.01642394996425615</v>
+        <v>0.01557302937924594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H4">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I4">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J4">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.73965959122352</v>
+        <v>10.11432133333333</v>
       </c>
       <c r="N4">
-        <v>7.73965959122352</v>
+        <v>30.342964</v>
       </c>
       <c r="O4">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="P4">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="Q4">
-        <v>64.85617028283333</v>
+        <v>86.41331585986578</v>
       </c>
       <c r="R4">
-        <v>64.85617028283333</v>
+        <v>777.7198427387921</v>
       </c>
       <c r="S4">
-        <v>0.001560950055891689</v>
+        <v>0.001932739886652888</v>
       </c>
       <c r="T4">
-        <v>0.001560950055891689</v>
+        <v>0.001932739886652888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.37971870964167</v>
+        <v>8.543659333333332</v>
       </c>
       <c r="H5">
-        <v>8.37971870964167</v>
+        <v>25.630978</v>
       </c>
       <c r="I5">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="J5">
-        <v>0.0261271190826788</v>
+        <v>0.02549662585027493</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.7825512801037</v>
+        <v>22.95103433333334</v>
       </c>
       <c r="N5">
-        <v>21.7825512801037</v>
+        <v>68.853103</v>
       </c>
       <c r="O5">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653774</v>
       </c>
       <c r="P5">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653775</v>
       </c>
       <c r="Q5">
-        <v>182.5316525056141</v>
+        <v>196.0858186916371</v>
       </c>
       <c r="R5">
-        <v>182.5316525056141</v>
+        <v>1764.772368224734</v>
       </c>
       <c r="S5">
-        <v>0.004393148592309904</v>
+        <v>0.004385700041957655</v>
       </c>
       <c r="T5">
-        <v>0.004393148592309904</v>
+        <v>0.004385700041957656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H6">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I6">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J6">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.5890183439877</v>
+        <v>18.86633166666667</v>
       </c>
       <c r="N6">
-        <v>18.5890183439877</v>
+        <v>56.598995</v>
       </c>
       <c r="O6">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846522</v>
       </c>
       <c r="P6">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846523</v>
       </c>
       <c r="Q6">
-        <v>4862.636772728612</v>
+        <v>5137.828797925695</v>
       </c>
       <c r="R6">
-        <v>4862.636772728612</v>
+        <v>46240.45918133125</v>
       </c>
       <c r="S6">
-        <v>0.1170333232608522</v>
+        <v>0.1149138480537908</v>
       </c>
       <c r="T6">
-        <v>0.1170333232608522</v>
+        <v>0.1149138480537909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H7">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I7">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J7">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.43488088349871</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N7">
-        <v>81.43488088349871</v>
+        <v>244.488083</v>
       </c>
       <c r="O7">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="P7">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="Q7">
-        <v>21302.26777117312</v>
+        <v>22193.64343107236</v>
       </c>
       <c r="R7">
-        <v>21302.26777117312</v>
+        <v>199742.7908796512</v>
       </c>
       <c r="S7">
-        <v>0.5127002708150001</v>
+        <v>0.4963880793435397</v>
       </c>
       <c r="T7">
-        <v>0.5127002708150001</v>
+        <v>0.4963880793435396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H8">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I8">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J8">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.73965959122352</v>
+        <v>10.11432133333333</v>
       </c>
       <c r="N8">
-        <v>7.73965959122352</v>
+        <v>30.342964</v>
       </c>
       <c r="O8">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="P8">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="Q8">
-        <v>2024.590682533682</v>
+        <v>2754.412057203889</v>
       </c>
       <c r="R8">
-        <v>2024.590682533682</v>
+        <v>24789.708514835</v>
       </c>
       <c r="S8">
-        <v>0.04872759099522771</v>
+        <v>0.06160580686278345</v>
       </c>
       <c r="T8">
-        <v>0.04872759099522771</v>
+        <v>0.06160580686278345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>261.58652827955</v>
+        <v>272.3279166666667</v>
       </c>
       <c r="H9">
-        <v>261.58652827955</v>
+        <v>816.98375</v>
       </c>
       <c r="I9">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845317</v>
       </c>
       <c r="J9">
-        <v>0.8156004529031002</v>
+        <v>0.8127012944845315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.7825512801037</v>
+        <v>22.95103433333334</v>
       </c>
       <c r="N9">
-        <v>21.7825512801037</v>
+        <v>68.853103</v>
       </c>
       <c r="O9">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653774</v>
       </c>
       <c r="P9">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653775</v>
       </c>
       <c r="Q9">
-        <v>5698.021966433595</v>
+        <v>6250.207365341807</v>
       </c>
       <c r="R9">
-        <v>5698.021966433595</v>
+        <v>56251.86628807625</v>
       </c>
       <c r="S9">
-        <v>0.1371392678320202</v>
+        <v>0.1397935602244176</v>
       </c>
       <c r="T9">
-        <v>0.1371392678320202</v>
+        <v>0.1397935602244176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>50.7625208142619</v>
+        <v>2.656328333333333</v>
       </c>
       <c r="H10">
-        <v>50.7625208142619</v>
+        <v>7.968985</v>
       </c>
       <c r="I10">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="J10">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5890183439877</v>
+        <v>18.86633166666667</v>
       </c>
       <c r="N10">
-        <v>18.5890183439877</v>
+        <v>56.598995</v>
       </c>
       <c r="O10">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846522</v>
       </c>
       <c r="P10">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846523</v>
       </c>
       <c r="Q10">
-        <v>943.6254306033718</v>
+        <v>50.11517135223055</v>
       </c>
       <c r="R10">
-        <v>943.6254306033718</v>
+        <v>451.036542170075</v>
       </c>
       <c r="S10">
-        <v>0.02271105682339411</v>
+        <v>0.00112088732662423</v>
       </c>
       <c r="T10">
-        <v>0.02271105682339411</v>
+        <v>0.001120887326624231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>50.7625208142619</v>
+        <v>2.656328333333333</v>
       </c>
       <c r="H11">
-        <v>50.7625208142619</v>
+        <v>7.968985</v>
       </c>
       <c r="I11">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="J11">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.43488088349871</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N11">
-        <v>81.43488088349871</v>
+        <v>244.488083</v>
       </c>
       <c r="O11">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="P11">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="Q11">
-        <v>4133.839835855541</v>
+        <v>216.4802073450839</v>
       </c>
       <c r="R11">
-        <v>4133.839835855541</v>
+        <v>1948.321866105755</v>
       </c>
       <c r="S11">
-        <v>0.09949273129582177</v>
+        <v>0.004841845579508132</v>
       </c>
       <c r="T11">
-        <v>0.09949273129582177</v>
+        <v>0.004841845579508132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>50.7625208142619</v>
+        <v>2.656328333333333</v>
       </c>
       <c r="H12">
-        <v>50.7625208142619</v>
+        <v>7.968985</v>
       </c>
       <c r="I12">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="J12">
-        <v>0.158272428014221</v>
+        <v>0.007927213271044639</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73965959122352</v>
+        <v>10.11432133333333</v>
       </c>
       <c r="N12">
-        <v>7.73965959122352</v>
+        <v>30.342964</v>
       </c>
       <c r="O12">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="P12">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="Q12">
-        <v>392.8846310947857</v>
+        <v>26.86695833017111</v>
       </c>
       <c r="R12">
-        <v>392.8846310947857</v>
+        <v>241.80262497154</v>
       </c>
       <c r="S12">
-        <v>0.009455897321595593</v>
+        <v>0.0006009125038318307</v>
       </c>
       <c r="T12">
-        <v>0.009455897321595593</v>
+        <v>0.0006009125038318307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>2.656328333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.968985</v>
+      </c>
+      <c r="I13">
+        <v>0.007927213271044639</v>
+      </c>
+      <c r="J13">
+        <v>0.007927213271044639</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.95103433333334</v>
+      </c>
+      <c r="N13">
+        <v>68.853103</v>
+      </c>
+      <c r="O13">
+        <v>0.1720109973653774</v>
+      </c>
+      <c r="P13">
+        <v>0.1720109973653775</v>
+      </c>
+      <c r="Q13">
+        <v>60.96548277893945</v>
+      </c>
+      <c r="R13">
+        <v>548.689345010455</v>
+      </c>
+      <c r="S13">
+        <v>0.001363567861080445</v>
+      </c>
+      <c r="T13">
+        <v>0.001363567861080445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H14">
+        <v>154.685696</v>
+      </c>
+      <c r="I14">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J14">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.86633166666667</v>
+      </c>
+      <c r="N14">
+        <v>56.598995</v>
+      </c>
+      <c r="O14">
+        <v>0.1413973975846522</v>
+      </c>
+      <c r="P14">
+        <v>0.1413973975846523</v>
+      </c>
+      <c r="Q14">
+        <v>972.7838816083912</v>
+      </c>
+      <c r="R14">
+        <v>8755.05493447552</v>
+      </c>
+      <c r="S14">
+        <v>0.02175750566181871</v>
+      </c>
+      <c r="T14">
+        <v>0.02175750566181871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H15">
+        <v>154.685696</v>
+      </c>
+      <c r="I15">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J15">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>81.49602766666666</v>
+      </c>
+      <c r="N15">
+        <v>244.488083</v>
+      </c>
+      <c r="O15">
+        <v>0.6107878536829223</v>
+      </c>
+      <c r="P15">
+        <v>0.6107878536829223</v>
+      </c>
+      <c r="Q15">
+        <v>4202.08992028453</v>
+      </c>
+      <c r="R15">
+        <v>37818.80928256077</v>
+      </c>
+      <c r="S15">
+        <v>0.09398489938062865</v>
+      </c>
+      <c r="T15">
+        <v>0.09398489938062862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>50.7625208142619</v>
-      </c>
-      <c r="H13">
-        <v>50.7625208142619</v>
-      </c>
-      <c r="I13">
-        <v>0.158272428014221</v>
-      </c>
-      <c r="J13">
-        <v>0.158272428014221</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>21.7825512801037</v>
-      </c>
-      <c r="N13">
-        <v>21.7825512801037</v>
-      </c>
-      <c r="O13">
-        <v>0.1681451589977396</v>
-      </c>
-      <c r="P13">
-        <v>0.1681451589977396</v>
-      </c>
-      <c r="Q13">
-        <v>1105.737212743991</v>
-      </c>
-      <c r="R13">
-        <v>1105.737212743991</v>
-      </c>
-      <c r="S13">
-        <v>0.02661274257340948</v>
-      </c>
-      <c r="T13">
-        <v>0.02661274257340948</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H16">
+        <v>154.685696</v>
+      </c>
+      <c r="I16">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J16">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.11432133333333</v>
+      </c>
+      <c r="N16">
+        <v>30.342964</v>
+      </c>
+      <c r="O16">
+        <v>0.07580375136704795</v>
+      </c>
+      <c r="P16">
+        <v>0.07580375136704795</v>
+      </c>
+      <c r="Q16">
+        <v>521.5136116714383</v>
+      </c>
+      <c r="R16">
+        <v>4693.622505042945</v>
+      </c>
+      <c r="S16">
+        <v>0.01166429211377979</v>
+      </c>
+      <c r="T16">
+        <v>0.01166429211377978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>51.56189866666667</v>
+      </c>
+      <c r="H17">
+        <v>154.685696</v>
+      </c>
+      <c r="I17">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="J17">
+        <v>0.1538748663941489</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.95103433333334</v>
+      </c>
+      <c r="N17">
+        <v>68.853103</v>
+      </c>
+      <c r="O17">
+        <v>0.1720109973653774</v>
+      </c>
+      <c r="P17">
+        <v>0.1720109973653775</v>
+      </c>
+      <c r="Q17">
+        <v>1183.398906590521</v>
+      </c>
+      <c r="R17">
+        <v>10650.59015931469</v>
+      </c>
+      <c r="S17">
+        <v>0.02646816923792175</v>
+      </c>
+      <c r="T17">
+        <v>0.02646816923792175</v>
       </c>
     </row>
   </sheetData>
